--- a/English507/DataModel/TelkaDataModel.xlsx
+++ b/English507/DataModel/TelkaDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25560" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2621,7 +2621,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2670,6 +2670,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2847,7 +2849,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="56">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2877,6 +2879,8 @@
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3233,8 +3237,8 @@
   <dimension ref="A1:ZT120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
